--- a/hands on/BusinessPlan/workbook_with_picture.xlsx
+++ b/hands on/BusinessPlan/workbook_with_picture.xlsx
@@ -63,9 +63,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>379705</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533529</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -84,7 +84,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5715000" cy="5715000"/>
+          <a:ext cx="4268236" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
